--- a/Sheets/Beginner's DSA Sheet by FRAZ .xlsx
+++ b/Sheets/Beginner's DSA Sheet by FRAZ .xlsx
@@ -1,63 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7110"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">For full Practice DSA Sheet by FRAZ ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.youtube.com/c/leadcoding</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
     <t>NOTE :- This is the Beginner's list. Get comfortable with these questions and then follow my FULL DSA series for complete preparation</t>
   </si>
   <si>
     <t xml:space="preserve">HOW TO FOLLOW THIS SHEET </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">JOIN TELEGRAM CHANNEL FOR UPDATES  </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://t.me/LeadCoding</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Theory Lecture</t>
@@ -88,22 +50,6 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/occurs-once_1214969</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://leetcode.com/problems/contains-duplicate/</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/majority-element_842495</t>
@@ -188,22 +134,6 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problem-details/find-peak-element_1081482</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.codingninjas.com/codestudio/problems/square-root-integral_893351</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>RECURSION 5</t>
@@ -308,136 +238,238 @@
     <t>https://leetcode.com/problems/min-stack/</t>
   </si>
   <si>
+    <t>https://www.codingninjas.com/codestudio/problem-details/stack-using-queue_795152</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/maximum-nesting-depth-of-two-valid-parentheses-strings_1461222</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
-      <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+      <t xml:space="preserve">For full Practice DSA Sheet by FRAZ ( </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://www.youtube.com/c/leadcoding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">JOIN TELEGRAM CHANNEL FOR UPDATES  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://t.me/LeadCoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t>https://www.codingninjas.com/codestudio/problem-details/stack-using-queue_795152</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://leetcode.com/problems/contains-duplicate/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
-    <t>https://www.codingninjas.com/codestudio/problems/maximum-nesting-depth-of-two-valid-parentheses-strings_1461222</t>
+    <r>
+      <t>https://www.codingninjas.com/codestudio/problems/square-root-integral_893351</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF56A3F1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF56A3F1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF3C78D8"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF5AADF1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF56A3F1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF3C78D8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF5AADF1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -445,7 +477,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -455,125 +487,88 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -763,29 +758,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y891"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.29"/>
-    <col customWidth="1" min="2" max="2" width="116.57"/>
-    <col customWidth="1" min="3" max="3" width="46.0"/>
-    <col customWidth="1" min="4" max="4" width="54.86"/>
+    <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="116.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -811,10 +810,10 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -840,9 +839,9 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -867,10 +866,10 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -896,10 +895,10 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -925,9 +924,9 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -952,14 +951,14 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -983,13 +982,13 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1014,10 +1013,10 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -1043,10 +1042,10 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="10"/>
@@ -1072,10 +1071,10 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="10"/>
@@ -1101,10 +1100,10 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="10"/>
@@ -1130,10 +1129,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="11"/>
@@ -1159,10 +1158,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="12"/>
@@ -1188,10 +1187,10 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="14"/>
@@ -1217,10 +1216,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="10"/>
@@ -1246,10 +1245,10 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>16</v>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="10"/>
@@ -1275,13 +1274,13 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="1"/>
@@ -1306,7 +1305,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1333,13 +1332,13 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>19</v>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1362,10 +1361,10 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25">
       <c r="A21" s="1"/>
-      <c r="B21" s="16" t="s">
-        <v>20</v>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="14"/>
@@ -1391,10 +1390,10 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25">
       <c r="A22" s="1"/>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="14"/>
@@ -1420,10 +1419,10 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25">
       <c r="A23" s="1"/>
-      <c r="B23" s="17" t="s">
-        <v>22</v>
+      <c r="B23" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="14"/>
@@ -1449,10 +1448,10 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25">
       <c r="A24" s="1"/>
-      <c r="B24" s="8" t="s">
-        <v>23</v>
+      <c r="B24" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="12"/>
@@ -1478,10 +1477,10 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
-        <v>24</v>
+      <c r="B25" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="14"/>
@@ -1507,10 +1506,10 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25">
       <c r="A26" s="1"/>
-      <c r="B26" s="17" t="s">
-        <v>25</v>
+      <c r="B26" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
@@ -1536,10 +1535,10 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>26</v>
+      <c r="B27" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="12"/>
@@ -1565,10 +1564,10 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
-        <v>27</v>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="14"/>
@@ -1594,10 +1593,10 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25">
       <c r="A29" s="1"/>
-      <c r="B29" s="19" t="s">
-        <v>28</v>
+      <c r="B29" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="14"/>
@@ -1623,10 +1622,10 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
-        <v>29</v>
+      <c r="B30" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="14"/>
@@ -1652,11 +1651,11 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1679,13 +1678,13 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25">
       <c r="A32" s="1"/>
-      <c r="B32" s="20" t="s">
-        <v>30</v>
+      <c r="B32" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1708,10 +1707,10 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25">
       <c r="A33" s="1"/>
-      <c r="B33" s="17" t="s">
-        <v>31</v>
+      <c r="B33" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
@@ -1737,10 +1736,10 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25">
       <c r="A34" s="1"/>
-      <c r="B34" s="17" t="s">
-        <v>32</v>
+      <c r="B34" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="14"/>
@@ -1766,10 +1765,10 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25">
       <c r="A35" s="1"/>
-      <c r="B35" s="17" t="s">
-        <v>33</v>
+      <c r="B35" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="14"/>
@@ -1795,10 +1794,10 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25">
       <c r="A36" s="1"/>
-      <c r="B36" s="17" t="s">
-        <v>34</v>
+      <c r="B36" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="14"/>
@@ -1824,13 +1823,13 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
+      <c r="B37" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1853,7 +1852,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1880,13 +1879,13 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25">
       <c r="A39" s="1"/>
-      <c r="B39" s="22" t="s">
-        <v>36</v>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>37</v>
+      <c r="C39" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1911,7 +1910,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1938,10 +1937,10 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25">
       <c r="A41" s="1"/>
-      <c r="B41" s="7" t="s">
-        <v>38</v>
+      <c r="B41" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1967,13 +1966,13 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25">
       <c r="A42" s="1"/>
-      <c r="B42" s="8" t="s">
-        <v>39</v>
+      <c r="B42" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1996,10 +1995,10 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25">
       <c r="A43" s="1"/>
-      <c r="B43" s="8" t="s">
-        <v>40</v>
+      <c r="B43" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="14"/>
@@ -2025,10 +2024,10 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25">
       <c r="A44" s="1"/>
-      <c r="B44" s="8" t="s">
-        <v>41</v>
+      <c r="B44" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="14"/>
@@ -2054,10 +2053,10 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25">
       <c r="A45" s="1"/>
-      <c r="B45" s="8" t="s">
-        <v>42</v>
+      <c r="B45" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="14"/>
@@ -2083,10 +2082,10 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25">
       <c r="A46" s="1"/>
-      <c r="B46" s="8" t="s">
-        <v>43</v>
+      <c r="B46" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="14"/>
@@ -2112,11 +2111,11 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2139,13 +2138,13 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25">
       <c r="A48" s="1"/>
-      <c r="B48" s="7" t="s">
-        <v>44</v>
+      <c r="B48" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2168,10 +2167,10 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25">
       <c r="A49" s="1"/>
-      <c r="B49" s="23" t="s">
-        <v>45</v>
+      <c r="B49" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="14"/>
@@ -2197,10 +2196,10 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25">
       <c r="A50" s="1"/>
-      <c r="B50" s="24" t="s">
-        <v>46</v>
+      <c r="B50" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="12"/>
@@ -2226,13 +2225,13 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25">
       <c r="A51" s="1"/>
-      <c r="B51" s="8" t="s">
-        <v>47</v>
+      <c r="B51" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>48</v>
+      <c r="C51" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="1"/>
@@ -2257,13 +2256,13 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25">
       <c r="A52" s="1"/>
-      <c r="B52" s="8" t="s">
-        <v>10</v>
+      <c r="B52" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>49</v>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="1"/>
@@ -2288,13 +2287,13 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25">
       <c r="A53" s="1"/>
-      <c r="B53" s="24" t="s">
-        <v>35</v>
+      <c r="B53" s="15" t="s">
+        <v>32</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>50</v>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="1"/>
@@ -2319,15 +2318,15 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25">
       <c r="A54" s="1"/>
-      <c r="B54" s="22" t="s">
-        <v>51</v>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>52</v>
+      <c r="C54" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2350,11 +2349,11 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2377,13 +2376,13 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25">
       <c r="A56" s="1"/>
-      <c r="B56" s="7" t="s">
-        <v>53</v>
+      <c r="B56" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2406,13 +2405,13 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25">
       <c r="A57" s="1"/>
-      <c r="B57" s="8" t="s">
-        <v>54</v>
+      <c r="B57" s="9" t="s">
+        <v>50</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>55</v>
+      <c r="C57" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="1"/>
@@ -2437,13 +2436,13 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25">
       <c r="A58" s="1"/>
-      <c r="B58" s="25" t="s">
-        <v>56</v>
+      <c r="B58" s="15" t="s">
+        <v>52</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>57</v>
+      <c r="C58" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="1"/>
@@ -2468,13 +2467,13 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25">
       <c r="A59" s="1"/>
-      <c r="B59" s="8" t="s">
-        <v>58</v>
+      <c r="B59" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>59</v>
+      <c r="C59" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="1"/>
@@ -2499,13 +2498,13 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25">
       <c r="A60" s="1"/>
-      <c r="B60" s="8" t="s">
-        <v>60</v>
+      <c r="B60" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>61</v>
+      <c r="C60" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="1"/>
@@ -2530,13 +2529,13 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25">
       <c r="A61" s="1"/>
-      <c r="B61" s="8" t="s">
-        <v>62</v>
+      <c r="B61" s="9" t="s">
+        <v>58</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>63</v>
+      <c r="C61" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="1"/>
@@ -2561,13 +2560,13 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25">
       <c r="A62" s="1"/>
-      <c r="B62" s="8" t="s">
-        <v>64</v>
+      <c r="B62" s="9" t="s">
+        <v>60</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>65</v>
+      <c r="C62" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="1"/>
@@ -2592,13 +2591,13 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25">
       <c r="A63" s="1"/>
-      <c r="B63" s="8" t="s">
-        <v>66</v>
+      <c r="B63" s="9" t="s">
+        <v>62</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>67</v>
+      <c r="C63" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="1"/>
@@ -2623,13 +2622,13 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25">
       <c r="A64" s="1"/>
-      <c r="B64" s="8" t="s">
-        <v>68</v>
+      <c r="B64" s="9" t="s">
+        <v>64</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>69</v>
+      <c r="C64" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="1"/>
@@ -2654,13 +2653,13 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25">
       <c r="A65" s="1"/>
-      <c r="B65" s="8" t="s">
-        <v>70</v>
+      <c r="B65" s="9" t="s">
+        <v>66</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>71</v>
+      <c r="C65" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="1"/>
@@ -2685,13 +2684,13 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25">
       <c r="A66" s="1"/>
-      <c r="B66" s="8" t="s">
-        <v>72</v>
+      <c r="B66" s="9" t="s">
+        <v>68</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>73</v>
+      <c r="C66" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="1"/>
@@ -2716,11 +2715,11 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="15"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2743,13 +2742,13 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:25">
       <c r="A68" s="1"/>
-      <c r="B68" s="26" t="s">
-        <v>74</v>
+      <c r="B68" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2772,13 +2771,13 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25">
       <c r="A69" s="1"/>
-      <c r="B69" s="17" t="s">
-        <v>75</v>
+      <c r="B69" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>76</v>
+      <c r="C69" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="1"/>
@@ -2803,10 +2802,10 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:25">
       <c r="A70" s="1"/>
-      <c r="B70" s="23" t="s">
-        <v>77</v>
+      <c r="B70" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="14"/>
@@ -2832,10 +2831,10 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25">
       <c r="A71" s="1"/>
-      <c r="B71" s="8" t="s">
-        <v>78</v>
+      <c r="B71" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="12"/>
@@ -2861,10 +2860,10 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:25">
       <c r="A72" s="1"/>
-      <c r="B72" s="8" t="s">
-        <v>79</v>
+      <c r="B72" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="12"/>
@@ -2890,10 +2889,10 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25">
       <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
-        <v>80</v>
+      <c r="B73" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="10"/>
@@ -2919,7 +2918,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25">
       <c r="A74" s="1"/>
       <c r="B74" s="9"/>
       <c r="C74" s="1"/>
@@ -2946,7 +2945,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:25">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
       <c r="C75" s="1"/>
@@ -2973,7 +2972,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25">
       <c r="A76" s="1"/>
       <c r="B76" s="9"/>
       <c r="C76" s="1"/>
@@ -3000,7 +2999,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:25">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
       <c r="C77" s="1"/>
@@ -3027,7 +3026,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3054,7 +3053,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:25">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
@@ -3081,7 +3080,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3108,7 +3107,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3135,7 +3134,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3162,7 +3161,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3189,7 +3188,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3216,9 +3215,9 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25">
       <c r="A85" s="1"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3243,7 +3242,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
@@ -3270,7 +3269,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3297,7 +3296,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3324,7 +3323,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1"/>
@@ -3351,7 +3350,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25">
       <c r="A90" s="1"/>
       <c r="B90" s="9"/>
       <c r="C90" s="1"/>
@@ -3378,7 +3377,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
       <c r="C91" s="1"/>
@@ -3405,7 +3404,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25">
       <c r="A92" s="1"/>
       <c r="B92" s="9"/>
       <c r="C92" s="1"/>
@@ -3432,7 +3431,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
       <c r="C93" s="1"/>
@@ -3459,7 +3458,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25">
       <c r="A94" s="1"/>
       <c r="B94" s="9"/>
       <c r="C94" s="1"/>
@@ -3486,7 +3485,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
       <c r="C95" s="1"/>
@@ -3513,7 +3512,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25">
       <c r="A96" s="1"/>
       <c r="B96" s="9"/>
       <c r="C96" s="1"/>
@@ -3540,7 +3539,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3567,7 +3566,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3594,7 +3593,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:25">
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
@@ -3621,7 +3620,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:25">
       <c r="A100" s="1"/>
       <c r="B100" s="9"/>
       <c r="C100" s="1"/>
@@ -3648,7 +3647,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3675,7 +3674,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:25">
       <c r="A102" s="1"/>
       <c r="B102" s="9"/>
       <c r="C102" s="1"/>
@@ -3702,7 +3701,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3729,9 +3728,9 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:25">
       <c r="A104" s="1"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3756,7 +3755,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:25">
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1"/>
@@ -3783,7 +3782,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:25">
       <c r="A106" s="1"/>
       <c r="B106" s="9"/>
       <c r="C106" s="1"/>
@@ -3810,7 +3809,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:25">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
       <c r="C107" s="1"/>
@@ -3837,7 +3836,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:25">
       <c r="A108" s="1"/>
       <c r="B108" s="9"/>
       <c r="C108" s="1"/>
@@ -3864,7 +3863,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:25">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
       <c r="C109" s="1"/>
@@ -3891,7 +3890,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:25">
       <c r="A110" s="1"/>
       <c r="B110" s="9"/>
       <c r="C110" s="1"/>
@@ -3918,7 +3917,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:25">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
       <c r="C111" s="1"/>
@@ -3945,7 +3944,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:25">
       <c r="A112" s="1"/>
       <c r="B112" s="9"/>
       <c r="C112" s="1"/>
@@ -3972,9 +3971,9 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:25">
       <c r="A113" s="1"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3999,7 +3998,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:25">
       <c r="A114" s="1"/>
       <c r="B114" s="9"/>
       <c r="C114" s="1"/>
@@ -4026,7 +4025,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4053,7 +4052,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:25">
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1"/>
@@ -4080,7 +4079,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:25">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
       <c r="C117" s="1"/>
@@ -4107,7 +4106,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:25">
       <c r="A118" s="1"/>
       <c r="B118" s="9"/>
       <c r="C118" s="1"/>
@@ -4134,7 +4133,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:25">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
       <c r="C119" s="1"/>
@@ -4161,7 +4160,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:25">
       <c r="A120" s="1"/>
       <c r="B120" s="9"/>
       <c r="C120" s="1"/>
@@ -4188,7 +4187,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:25">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
       <c r="C121" s="1"/>
@@ -4215,7 +4214,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:25">
       <c r="A122" s="1"/>
       <c r="B122" s="9"/>
       <c r="C122" s="1"/>
@@ -4242,7 +4241,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:25">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
       <c r="C123" s="1"/>
@@ -4269,7 +4268,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:25">
       <c r="A124" s="1"/>
       <c r="B124" s="9"/>
       <c r="C124" s="1"/>
@@ -4296,7 +4295,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4323,9 +4322,9 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:25">
       <c r="A126" s="1"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4350,7 +4349,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:25">
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="1"/>
@@ -4377,7 +4376,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4404,7 +4403,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4431,7 +4430,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:25">
       <c r="A130" s="1"/>
       <c r="B130" s="9"/>
       <c r="C130" s="1"/>
@@ -4458,7 +4457,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4485,7 +4484,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:25">
       <c r="A132" s="1"/>
       <c r="B132" s="9"/>
       <c r="C132" s="1"/>
@@ -4512,7 +4511,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:25">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
       <c r="C133" s="1"/>
@@ -4539,7 +4538,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4566,7 +4565,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:25">
       <c r="A135" s="1"/>
       <c r="B135" s="9"/>
       <c r="C135" s="1"/>
@@ -4593,7 +4592,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4620,7 +4619,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:25">
       <c r="A137" s="1"/>
       <c r="B137" s="9"/>
       <c r="C137" s="1"/>
@@ -4647,7 +4646,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4674,7 +4673,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4701,7 +4700,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:25">
       <c r="A140" s="1"/>
       <c r="B140" s="9"/>
       <c r="C140" s="1"/>
@@ -4728,7 +4727,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4755,7 +4754,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:25">
       <c r="A142" s="1"/>
       <c r="B142" s="9"/>
       <c r="C142" s="1"/>
@@ -4782,7 +4781,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:25">
       <c r="A143" s="1"/>
       <c r="B143" s="9"/>
       <c r="C143" s="1"/>
@@ -4809,7 +4808,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4836,7 +4835,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:25">
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="1"/>
@@ -4863,7 +4862,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:25">
       <c r="A146" s="1"/>
       <c r="B146" s="9"/>
       <c r="C146" s="1"/>
@@ -4890,7 +4889,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4917,7 +4916,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4944,7 +4943,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4971,7 +4970,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4998,7 +4997,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5025,7 +5024,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5052,7 +5051,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5079,7 +5078,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5106,7 +5105,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5133,7 +5132,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5160,7 +5159,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5187,7 +5186,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5214,7 +5213,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5241,7 +5240,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5268,7 +5267,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5295,7 +5294,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5322,7 +5321,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5349,7 +5348,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5376,7 +5375,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:25">
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="1"/>
@@ -5403,7 +5402,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5430,7 +5429,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5457,7 +5456,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:25">
       <c r="A168" s="1"/>
       <c r="B168" s="9"/>
       <c r="C168" s="1"/>
@@ -5484,7 +5483,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5511,7 +5510,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5538,7 +5537,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5565,7 +5564,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5592,7 +5591,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5619,9 +5618,9 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:25">
       <c r="A174" s="1"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5646,7 +5645,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:25">
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="1"/>
@@ -5673,7 +5672,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5700,7 +5699,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5727,9 +5726,9 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:25">
       <c r="A178" s="1"/>
-      <c r="B178" s="28"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5754,7 +5753,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:25">
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="1"/>
@@ -5781,7 +5780,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5808,7 +5807,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5835,7 +5834,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5862,9 +5861,9 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:25">
       <c r="A183" s="1"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5889,7 +5888,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:25">
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="1"/>
@@ -5916,7 +5915,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:25">
       <c r="A185" s="1"/>
       <c r="B185" s="9"/>
       <c r="C185" s="1"/>
@@ -5943,7 +5942,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5970,7 +5969,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5997,7 +5996,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6024,7 +6023,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6051,7 +6050,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:25">
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="1"/>
@@ -6078,7 +6077,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6105,7 +6104,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6132,7 +6131,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6159,7 +6158,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6186,7 +6185,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6213,7 +6212,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6240,7 +6239,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6267,7 +6266,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6294,7 +6293,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6321,7 +6320,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6348,7 +6347,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:25">
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
       <c r="C201" s="1"/>
@@ -6375,7 +6374,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6402,7 +6401,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6429,7 +6428,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6456,7 +6455,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6483,7 +6482,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6510,7 +6509,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6537,9 +6536,9 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:25">
       <c r="A208" s="1"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="8"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6564,7 +6563,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:25">
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1"/>
@@ -6591,7 +6590,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6618,7 +6617,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6645,7 +6644,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6672,7 +6671,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6699,7 +6698,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:25">
       <c r="A214" s="1"/>
       <c r="B214" s="9"/>
       <c r="C214" s="1"/>
@@ -6726,7 +6725,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6753,7 +6752,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:25">
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
       <c r="C216" s="1"/>
@@ -6780,7 +6779,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6807,7 +6806,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6834,7 +6833,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6861,7 +6860,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6888,7 +6887,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6915,9 +6914,9 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:25">
       <c r="A222" s="1"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="8"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6942,7 +6941,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:25">
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
       <c r="C223" s="1"/>
@@ -6969,7 +6968,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6996,7 +6995,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7023,7 +7022,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7050,7 +7049,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7077,7 +7076,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7104,7 +7103,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7131,9 +7130,9 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:25">
       <c r="A230" s="1"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="8"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7158,7 +7157,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:25">
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
       <c r="C231" s="1"/>
@@ -7185,7 +7184,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7212,7 +7211,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7239,7 +7238,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7266,7 +7265,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7293,7 +7292,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7320,7 +7319,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7347,7 +7346,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7374,7 +7373,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:25">
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
       <c r="C239" s="1"/>
@@ -7401,7 +7400,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:25">
       <c r="A240" s="1"/>
       <c r="B240" s="9"/>
       <c r="C240" s="1"/>
@@ -7428,7 +7427,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7455,7 +7454,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7482,7 +7481,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7509,7 +7508,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7536,9 +7535,9 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:25">
       <c r="A245" s="1"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="8"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7563,7 +7562,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:25">
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="1"/>
@@ -7590,7 +7589,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7617,7 +7616,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7644,7 +7643,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7671,7 +7670,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:25">
       <c r="A250" s="1"/>
       <c r="B250" s="9"/>
       <c r="C250" s="1"/>
@@ -7698,7 +7697,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7725,7 +7724,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:25">
       <c r="A252" s="1"/>
       <c r="B252" s="9"/>
       <c r="C252" s="1"/>
@@ -7752,7 +7751,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7779,7 +7778,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:25">
       <c r="A254" s="1"/>
       <c r="B254" s="3"/>
       <c r="C254" s="1"/>
@@ -7806,7 +7805,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:25">
       <c r="A255" s="1"/>
       <c r="B255" s="9"/>
       <c r="C255" s="1"/>
@@ -7833,7 +7832,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7860,7 +7859,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7887,7 +7886,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7914,7 +7913,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:25">
       <c r="A259" s="1"/>
       <c r="B259" s="9"/>
       <c r="C259" s="1"/>
@@ -7941,7 +7940,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7968,7 +7967,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:25">
       <c r="A261" s="1"/>
       <c r="B261" s="9"/>
       <c r="C261" s="1"/>
@@ -7995,7 +7994,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8022,9 +8021,9 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:25">
       <c r="A263" s="1"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="8"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -8049,7 +8048,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:25">
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
       <c r="C264" s="1"/>
@@ -8076,7 +8075,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:25">
       <c r="A265" s="1"/>
       <c r="B265" s="9"/>
       <c r="C265" s="1"/>
@@ -8103,7 +8102,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8130,7 +8129,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8157,7 +8156,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8184,7 +8183,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8211,7 +8210,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:25">
       <c r="A270" s="1"/>
       <c r="B270" s="9"/>
       <c r="C270" s="1"/>
@@ -8238,7 +8237,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8265,7 +8264,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8292,9 +8291,9 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:25">
       <c r="A273" s="1"/>
-      <c r="B273" s="7"/>
+      <c r="B273" s="8"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8319,7 +8318,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:25">
       <c r="A274" s="1"/>
       <c r="B274" s="3"/>
       <c r="C274" s="1"/>
@@ -8346,7 +8345,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:25">
       <c r="A275" s="1"/>
       <c r="B275" s="9"/>
       <c r="C275" s="1"/>
@@ -8373,7 +8372,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8400,7 +8399,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:25">
       <c r="A277" s="1"/>
       <c r="B277" s="9"/>
       <c r="C277" s="1"/>
@@ -8427,7 +8426,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:25">
       <c r="A278" s="1"/>
       <c r="B278" s="3"/>
       <c r="C278" s="1"/>
@@ -8454,7 +8453,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8481,7 +8480,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8508,7 +8507,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8535,7 +8534,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8562,7 +8561,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8589,7 +8588,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8616,7 +8615,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8643,7 +8642,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8670,7 +8669,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8697,7 +8696,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8724,7 +8723,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8751,7 +8750,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:25">
       <c r="A290" s="1"/>
       <c r="B290" s="9"/>
       <c r="C290" s="1"/>
@@ -8778,7 +8777,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8805,7 +8804,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8832,7 +8831,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8859,9 +8858,9 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:25">
       <c r="A294" s="1"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="8"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8886,7 +8885,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8913,7 +8912,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8940,9 +8939,9 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:25">
       <c r="A297" s="1"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="8"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -8967,9 +8966,9 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:25">
       <c r="A298" s="1"/>
-      <c r="B298" s="29"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -8994,9 +8993,9 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:25">
       <c r="A299" s="1"/>
-      <c r="B299" s="30"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -9021,9 +9020,9 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:25">
       <c r="A300" s="1"/>
-      <c r="B300" s="31"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -9048,7 +9047,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:25">
       <c r="A301" s="1"/>
       <c r="B301" s="9"/>
       <c r="C301" s="1"/>
@@ -9075,7 +9074,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:25">
       <c r="A302" s="1"/>
       <c r="B302" s="9"/>
       <c r="C302" s="1"/>
@@ -9102,7 +9101,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:25">
       <c r="A303" s="1"/>
       <c r="B303" s="9"/>
       <c r="C303" s="1"/>
@@ -9129,7 +9128,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:25">
       <c r="A304" s="1"/>
       <c r="B304" s="9"/>
       <c r="C304" s="1"/>
@@ -9156,7 +9155,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:25">
       <c r="A305" s="1"/>
       <c r="B305" s="9"/>
       <c r="C305" s="1"/>
@@ -9183,7 +9182,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:25">
       <c r="A306" s="1"/>
       <c r="B306" s="9"/>
       <c r="C306" s="1"/>
@@ -9210,7 +9209,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:25">
       <c r="A307" s="1"/>
       <c r="B307" s="9"/>
       <c r="C307" s="1"/>
@@ -9237,7 +9236,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:25">
       <c r="A308" s="1"/>
       <c r="B308" s="9"/>
       <c r="C308" s="1"/>
@@ -9264,7 +9263,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:25">
       <c r="A309" s="1"/>
       <c r="B309" s="9"/>
       <c r="C309" s="1"/>
@@ -9291,7 +9290,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:25">
       <c r="A310" s="1"/>
       <c r="B310" s="9"/>
       <c r="C310" s="1"/>
@@ -9318,7 +9317,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9345,7 +9344,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:25">
       <c r="A312" s="1"/>
       <c r="B312" s="3"/>
       <c r="C312" s="1"/>
@@ -9372,7 +9371,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9399,7 +9398,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9426,7 +9425,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9453,7 +9452,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9480,7 +9479,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:25">
       <c r="A317" s="1"/>
       <c r="B317" s="9"/>
       <c r="C317" s="1"/>
@@ -9507,7 +9506,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:25">
       <c r="A318" s="1"/>
       <c r="B318" s="9"/>
       <c r="C318" s="1"/>
@@ -9534,7 +9533,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9561,7 +9560,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:25">
       <c r="A320" s="1"/>
       <c r="B320" s="9"/>
       <c r="C320" s="1"/>
@@ -9588,7 +9587,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9615,7 +9614,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9642,7 +9641,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9669,7 +9668,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9696,7 +9695,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9723,7 +9722,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9750,7 +9749,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:25">
       <c r="A327" s="1"/>
       <c r="B327" s="3"/>
       <c r="C327" s="1"/>
@@ -9777,7 +9776,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:25">
       <c r="A328" s="1"/>
       <c r="B328" s="9"/>
       <c r="C328" s="1"/>
@@ -9804,7 +9803,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9831,7 +9830,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9858,9 +9857,9 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:25">
       <c r="A331" s="1"/>
-      <c r="B331" s="7"/>
+      <c r="B331" s="8"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -9885,7 +9884,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:25">
       <c r="A332" s="1"/>
       <c r="B332" s="3"/>
       <c r="C332" s="1"/>
@@ -9912,7 +9911,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9939,7 +9938,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9966,7 +9965,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9993,7 +9992,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10020,7 +10019,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10047,7 +10046,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10074,7 +10073,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10101,7 +10100,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10128,7 +10127,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10155,7 +10154,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:25">
       <c r="A342" s="1"/>
       <c r="B342" s="3"/>
       <c r="C342" s="1"/>
@@ -10182,7 +10181,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10209,7 +10208,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10236,7 +10235,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10263,7 +10262,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10290,7 +10289,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:25">
       <c r="A347" s="1"/>
       <c r="B347" s="9"/>
       <c r="C347" s="1"/>
@@ -10317,7 +10316,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10344,7 +10343,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10371,7 +10370,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10398,7 +10397,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10425,7 +10424,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10452,9 +10451,9 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:25">
       <c r="A353" s="1"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="8"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -10479,7 +10478,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:25">
       <c r="A354" s="1"/>
       <c r="B354" s="3"/>
       <c r="C354" s="1"/>
@@ -10506,7 +10505,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10533,7 +10532,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10560,7 +10559,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10587,9 +10586,9 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:25">
       <c r="A358" s="1"/>
-      <c r="B358" s="32"/>
+      <c r="B358" s="15"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -10614,7 +10613,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:25">
       <c r="A359" s="1"/>
       <c r="B359" s="3"/>
       <c r="C359" s="1"/>
@@ -10641,9 +10640,9 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:25">
       <c r="A360" s="1"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="8"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -10668,7 +10667,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:25">
       <c r="A361" s="1"/>
       <c r="B361" s="9"/>
       <c r="C361" s="1"/>
@@ -10695,9 +10694,9 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:25">
       <c r="A362" s="1"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="8"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -10722,7 +10721,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:25">
       <c r="A363" s="1"/>
       <c r="B363" s="9"/>
       <c r="C363" s="1"/>
@@ -10749,7 +10748,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10776,7 +10775,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10803,7 +10802,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10830,7 +10829,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10857,7 +10856,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10884,7 +10883,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10911,7 +10910,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10938,7 +10937,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10965,7 +10964,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10992,7 +10991,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11019,7 +11018,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11046,7 +11045,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11073,7 +11072,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11100,7 +11099,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11127,7 +11126,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11154,7 +11153,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11181,7 +11180,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11208,7 +11207,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11235,7 +11234,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11262,7 +11261,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11289,7 +11288,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11316,7 +11315,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11343,7 +11342,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11370,7 +11369,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11397,7 +11396,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11424,7 +11423,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11451,7 +11450,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11478,7 +11477,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11505,7 +11504,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11532,7 +11531,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11559,7 +11558,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11586,7 +11585,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11613,7 +11612,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11640,7 +11639,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11667,7 +11666,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11694,7 +11693,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11721,7 +11720,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11748,7 +11747,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11775,7 +11774,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11802,7 +11801,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11829,7 +11828,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11856,7 +11855,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11883,7 +11882,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11910,7 +11909,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11937,7 +11936,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11964,7 +11963,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11991,7 +11990,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12018,7 +12017,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12045,7 +12044,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12072,7 +12071,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12099,7 +12098,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12126,7 +12125,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12153,7 +12152,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12180,7 +12179,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12207,7 +12206,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12234,7 +12233,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12261,7 +12260,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12288,7 +12287,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12315,7 +12314,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12342,7 +12341,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12369,7 +12368,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12396,7 +12395,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12423,7 +12422,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12450,7 +12449,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12477,7 +12476,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12504,7 +12503,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12531,7 +12530,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12558,7 +12557,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12585,7 +12584,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12612,7 +12611,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12639,7 +12638,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12666,7 +12665,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12693,7 +12692,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12720,7 +12719,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12747,7 +12746,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12774,7 +12773,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12801,7 +12800,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12828,7 +12827,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12855,7 +12854,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12882,7 +12881,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12909,7 +12908,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12936,7 +12935,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12963,7 +12962,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12990,7 +12989,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13017,7 +13016,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13044,7 +13043,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13071,7 +13070,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13098,7 +13097,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13125,7 +13124,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13152,7 +13151,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13179,7 +13178,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13206,7 +13205,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13233,7 +13232,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13260,7 +13259,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13287,7 +13286,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13314,7 +13313,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13341,7 +13340,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13368,7 +13367,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13395,7 +13394,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13422,7 +13421,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13449,7 +13448,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13476,7 +13475,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13503,7 +13502,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13530,7 +13529,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13557,7 +13556,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13584,7 +13583,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13611,7 +13610,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13638,7 +13637,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13665,7 +13664,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13692,7 +13691,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13719,7 +13718,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13746,7 +13745,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13773,7 +13772,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13800,7 +13799,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13827,7 +13826,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13854,7 +13853,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13881,7 +13880,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13908,7 +13907,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13935,7 +13934,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13962,7 +13961,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13989,7 +13988,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14016,7 +14015,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14043,7 +14042,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14070,7 +14069,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14097,7 +14096,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14124,7 +14123,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14151,7 +14150,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14178,7 +14177,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14205,7 +14204,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14232,7 +14231,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14259,7 +14258,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14286,7 +14285,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14313,7 +14312,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14340,7 +14339,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14367,7 +14366,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14394,7 +14393,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14421,7 +14420,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14448,7 +14447,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14475,7 +14474,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14502,7 +14501,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14529,7 +14528,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14556,7 +14555,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14583,7 +14582,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14610,7 +14609,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14637,7 +14636,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14664,7 +14663,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14691,7 +14690,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14718,7 +14717,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14745,7 +14744,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14772,7 +14771,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14799,7 +14798,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14826,7 +14825,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14853,7 +14852,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14880,7 +14879,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14907,7 +14906,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14934,7 +14933,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14961,7 +14960,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14988,7 +14987,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15015,7 +15014,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15042,7 +15041,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15069,7 +15068,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15096,7 +15095,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15123,7 +15122,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15150,7 +15149,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15177,7 +15176,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15204,7 +15203,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -15231,7 +15230,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -15258,7 +15257,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -15285,7 +15284,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -15312,7 +15311,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -15339,7 +15338,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -15366,7 +15365,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -15393,7 +15392,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -15420,7 +15419,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -15447,7 +15446,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -15474,7 +15473,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -15501,7 +15500,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -15528,7 +15527,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15555,7 +15554,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15582,7 +15581,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15609,7 +15608,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15636,7 +15635,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15663,7 +15662,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15690,7 +15689,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15717,7 +15716,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15744,7 +15743,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15771,7 +15770,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15798,7 +15797,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15825,7 +15824,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15852,7 +15851,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15879,7 +15878,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15906,7 +15905,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15933,7 +15932,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15960,7 +15959,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15987,7 +15986,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16014,7 +16013,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16041,7 +16040,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16068,7 +16067,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16095,7 +16094,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16122,7 +16121,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16149,7 +16148,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16176,7 +16175,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16203,7 +16202,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -16230,7 +16229,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -16257,7 +16256,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -16284,7 +16283,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -16311,7 +16310,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -16338,7 +16337,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -16365,7 +16364,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -16392,7 +16391,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -16419,7 +16418,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -16446,7 +16445,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -16473,7 +16472,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -16500,7 +16499,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -16527,7 +16526,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -16554,7 +16553,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -16581,7 +16580,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16608,7 +16607,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16635,7 +16634,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16662,7 +16661,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16689,7 +16688,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16716,7 +16715,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16743,7 +16742,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16770,7 +16769,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16797,7 +16796,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16824,7 +16823,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16851,7 +16850,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16878,7 +16877,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16905,7 +16904,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16932,7 +16931,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16959,7 +16958,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16986,7 +16985,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17013,7 +17012,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17040,7 +17039,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17067,7 +17066,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17094,7 +17093,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17121,7 +17120,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17148,7 +17147,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17175,7 +17174,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17202,7 +17201,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -17229,7 +17228,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -17256,7 +17255,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -17283,7 +17282,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -17310,7 +17309,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -17337,7 +17336,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -17364,7 +17363,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -17391,7 +17390,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -17418,7 +17417,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -17445,7 +17444,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -17472,7 +17471,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -17499,7 +17498,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -17526,7 +17525,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -17553,7 +17552,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -17580,7 +17579,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -17607,7 +17606,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17634,7 +17633,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17661,7 +17660,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17688,7 +17687,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17715,7 +17714,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17742,7 +17741,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17769,7 +17768,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17796,7 +17795,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17823,7 +17822,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17850,7 +17849,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17877,7 +17876,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17904,7 +17903,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17931,7 +17930,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17958,7 +17957,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17985,7 +17984,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18012,7 +18011,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18039,7 +18038,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18066,7 +18065,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18093,7 +18092,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18120,7 +18119,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18147,7 +18146,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18174,7 +18173,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18201,7 +18200,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -18228,7 +18227,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -18255,7 +18254,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -18282,7 +18281,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -18309,7 +18308,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -18336,7 +18335,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -18363,7 +18362,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -18390,7 +18389,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -18417,7 +18416,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -18444,7 +18443,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -18471,7 +18470,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -18498,7 +18497,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -18525,7 +18524,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -18552,7 +18551,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -18579,7 +18578,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -18606,7 +18605,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -18633,7 +18632,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -18660,7 +18659,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18687,7 +18686,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18714,7 +18713,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18741,7 +18740,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18768,7 +18767,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18795,7 +18794,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18822,7 +18821,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -18849,7 +18848,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -18876,7 +18875,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -18903,7 +18902,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18930,7 +18929,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18957,7 +18956,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18984,7 +18983,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19011,7 +19010,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19038,7 +19037,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19065,7 +19064,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19092,7 +19091,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19119,7 +19118,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19146,7 +19145,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19173,7 +19172,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19200,7 +19199,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -19227,7 +19226,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -19254,7 +19253,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -19281,7 +19280,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -19308,7 +19307,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -19335,7 +19334,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -19362,7 +19361,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -19389,7 +19388,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -19416,7 +19415,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -19443,7 +19442,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -19470,7 +19469,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -19497,7 +19496,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -19524,7 +19523,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -19551,7 +19550,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -19578,7 +19577,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -19605,7 +19604,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -19632,7 +19631,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -19659,7 +19658,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -19686,7 +19685,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19713,7 +19712,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19740,7 +19739,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19767,7 +19766,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19794,7 +19793,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -19821,7 +19820,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -19848,7 +19847,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -19875,7 +19874,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -19902,7 +19901,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -19929,7 +19928,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -19956,7 +19955,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19983,7 +19982,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20010,7 +20009,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20037,7 +20036,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20064,7 +20063,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20091,7 +20090,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20118,7 +20117,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20145,7 +20144,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20172,7 +20171,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20199,7 +20198,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -20226,7 +20225,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -20253,7 +20252,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -20280,7 +20279,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -20307,7 +20306,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -20334,7 +20333,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -20361,7 +20360,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -20388,7 +20387,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -20415,7 +20414,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -20442,7 +20441,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -20469,7 +20468,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -20496,7 +20495,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -20523,7 +20522,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -20550,7 +20549,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -20577,7 +20576,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -20604,7 +20603,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -20631,7 +20630,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -20658,7 +20657,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -20685,7 +20684,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -20712,7 +20711,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -20739,7 +20738,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -20766,7 +20765,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -20793,7 +20792,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -20820,7 +20819,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -20847,7 +20846,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -20874,7 +20873,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -20901,7 +20900,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -20928,7 +20927,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -20955,7 +20954,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -20982,7 +20981,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21009,7 +21008,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21036,7 +21035,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21063,7 +21062,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21090,7 +21089,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21117,7 +21116,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21144,7 +21143,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21171,7 +21170,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21198,7 +21197,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -21225,7 +21224,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -21252,7 +21251,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -21279,7 +21278,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -21306,7 +21305,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -21333,7 +21332,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -21360,7 +21359,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -21387,7 +21386,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -21414,7 +21413,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -21441,7 +21440,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -21468,7 +21467,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -21495,7 +21494,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -21522,7 +21521,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -21549,7 +21548,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -21576,7 +21575,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -21603,7 +21602,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -21630,7 +21629,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -21657,7 +21656,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -21684,7 +21683,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -21711,7 +21710,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -21738,7 +21737,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -21765,7 +21764,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -21792,7 +21791,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -21819,7 +21818,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -21846,7 +21845,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -21873,7 +21872,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -21900,7 +21899,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -21927,7 +21926,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -21954,7 +21953,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -21981,7 +21980,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22008,7 +22007,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22035,7 +22034,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22062,7 +22061,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22089,7 +22088,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22116,7 +22115,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22143,7 +22142,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22170,7 +22169,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22197,7 +22196,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -22224,7 +22223,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -22251,7 +22250,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -22278,7 +22277,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -22305,7 +22304,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -22332,7 +22331,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -22359,7 +22358,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -22386,7 +22385,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -22413,7 +22412,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -22440,7 +22439,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -22467,7 +22466,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -22494,7 +22493,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -22521,7 +22520,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -22548,7 +22547,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -22575,7 +22574,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -22602,7 +22601,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -22629,7 +22628,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -22656,7 +22655,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -22683,7 +22682,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -22710,7 +22709,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -22737,7 +22736,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -22764,7 +22763,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -22791,7 +22790,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -22818,7 +22817,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -22845,7 +22844,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -22872,7 +22871,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -22899,7 +22898,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -22926,7 +22925,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -22953,7 +22952,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -22980,7 +22979,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23007,7 +23006,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23034,7 +23033,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23061,7 +23060,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23088,7 +23087,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23115,7 +23114,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23142,7 +23141,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23169,7 +23168,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23196,7 +23195,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -23223,7 +23222,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -23250,7 +23249,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -23277,7 +23276,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -23304,7 +23303,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -23331,7 +23330,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -23358,7 +23357,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -23385,7 +23384,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -23412,7 +23411,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -23439,7 +23438,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -23466,7 +23465,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -23493,7 +23492,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -23520,7 +23519,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -23547,7 +23546,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -23574,7 +23573,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -23601,7 +23600,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -23628,7 +23627,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -23655,7 +23654,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -23682,7 +23681,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -23709,7 +23708,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -23736,7 +23735,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -23763,7 +23762,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -23790,7 +23789,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -23817,7 +23816,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -23844,7 +23843,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -23871,7 +23870,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -23898,7 +23897,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -23925,7 +23924,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -23952,7 +23951,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -23979,7 +23978,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24006,7 +24005,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24033,7 +24032,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24060,7 +24059,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24087,7 +24086,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24114,7 +24113,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24141,7 +24140,7 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24168,7 +24167,7 @@
       <c r="X860" s="1"/>
       <c r="Y860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -24195,7 +24194,7 @@
       <c r="X861" s="1"/>
       <c r="Y861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -24222,7 +24221,7 @@
       <c r="X862" s="1"/>
       <c r="Y862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -24249,7 +24248,7 @@
       <c r="X863" s="1"/>
       <c r="Y863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -24276,7 +24275,7 @@
       <c r="X864" s="1"/>
       <c r="Y864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -24303,7 +24302,7 @@
       <c r="X865" s="1"/>
       <c r="Y865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -24330,7 +24329,7 @@
       <c r="X866" s="1"/>
       <c r="Y866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -24357,7 +24356,7 @@
       <c r="X867" s="1"/>
       <c r="Y867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -24384,7 +24383,7 @@
       <c r="X868" s="1"/>
       <c r="Y868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -24411,7 +24410,7 @@
       <c r="X869" s="1"/>
       <c r="Y869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -24438,7 +24437,7 @@
       <c r="X870" s="1"/>
       <c r="Y870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -24465,7 +24464,7 @@
       <c r="X871" s="1"/>
       <c r="Y871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -24492,7 +24491,7 @@
       <c r="X872" s="1"/>
       <c r="Y872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -24519,7 +24518,7 @@
       <c r="X873" s="1"/>
       <c r="Y873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -24546,7 +24545,7 @@
       <c r="X874" s="1"/>
       <c r="Y874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -24573,7 +24572,7 @@
       <c r="X875" s="1"/>
       <c r="Y875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -24600,7 +24599,7 @@
       <c r="X876" s="1"/>
       <c r="Y876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -24627,7 +24626,7 @@
       <c r="X877" s="1"/>
       <c r="Y877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -24654,7 +24653,7 @@
       <c r="X878" s="1"/>
       <c r="Y878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -24681,7 +24680,7 @@
       <c r="X879" s="1"/>
       <c r="Y879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -24708,7 +24707,7 @@
       <c r="X880" s="1"/>
       <c r="Y880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -24735,7 +24734,7 @@
       <c r="X881" s="1"/>
       <c r="Y881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -24762,7 +24761,7 @@
       <c r="X882" s="1"/>
       <c r="Y882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -24789,7 +24788,7 @@
       <c r="X883" s="1"/>
       <c r="Y883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -24816,7 +24815,7 @@
       <c r="X884" s="1"/>
       <c r="Y884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -24843,7 +24842,7 @@
       <c r="X885" s="1"/>
       <c r="Y885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -24870,7 +24869,7 @@
       <c r="X886" s="1"/>
       <c r="Y886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -24897,7 +24896,7 @@
       <c r="X887" s="1"/>
       <c r="Y887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -24924,7 +24923,7 @@
       <c r="X888" s="1"/>
       <c r="Y888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -24951,7 +24950,7 @@
       <c r="X889" s="1"/>
       <c r="Y889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -24978,7 +24977,7 @@
       <c r="X890" s="1"/>
       <c r="Y890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -25007,75 +25006,76 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="C8"/>
-    <hyperlink r:id="rId4" ref="B9"/>
-    <hyperlink r:id="rId5" ref="B10"/>
-    <hyperlink r:id="rId6" ref="B11"/>
-    <hyperlink r:id="rId7" ref="B12"/>
-    <hyperlink r:id="rId8" ref="B13"/>
-    <hyperlink r:id="rId9" ref="B14"/>
-    <hyperlink r:id="rId10" ref="B15"/>
-    <hyperlink r:id="rId11" ref="B16"/>
-    <hyperlink r:id="rId12" ref="B17"/>
-    <hyperlink r:id="rId13" ref="B18"/>
-    <hyperlink r:id="rId14" ref="C18"/>
-    <hyperlink r:id="rId15" ref="B21"/>
-    <hyperlink r:id="rId16" ref="B22"/>
-    <hyperlink r:id="rId17" ref="B23"/>
-    <hyperlink r:id="rId18" ref="B24"/>
-    <hyperlink r:id="rId19" ref="B25"/>
-    <hyperlink r:id="rId20" ref="B26"/>
-    <hyperlink r:id="rId21" ref="B27"/>
-    <hyperlink r:id="rId22" ref="B28"/>
-    <hyperlink r:id="rId23" ref="B29"/>
-    <hyperlink r:id="rId24" ref="B30"/>
-    <hyperlink r:id="rId25" ref="B33"/>
-    <hyperlink r:id="rId26" ref="B34"/>
-    <hyperlink r:id="rId27" ref="B35"/>
-    <hyperlink r:id="rId28" ref="B36"/>
-    <hyperlink r:id="rId29" ref="B37"/>
-    <hyperlink r:id="rId30" ref="C39"/>
-    <hyperlink r:id="rId31" ref="B42"/>
-    <hyperlink r:id="rId32" ref="B43"/>
-    <hyperlink r:id="rId33" ref="B44"/>
-    <hyperlink r:id="rId34" ref="B45"/>
-    <hyperlink r:id="rId35" ref="B46"/>
-    <hyperlink r:id="rId36" ref="B49"/>
-    <hyperlink r:id="rId37" ref="B50"/>
-    <hyperlink r:id="rId38" ref="B51"/>
-    <hyperlink r:id="rId39" ref="C51"/>
-    <hyperlink r:id="rId40" ref="B52"/>
-    <hyperlink r:id="rId41" ref="B53"/>
-    <hyperlink r:id="rId42" ref="C54"/>
-    <hyperlink r:id="rId43" ref="B57"/>
-    <hyperlink r:id="rId44" ref="C57"/>
-    <hyperlink r:id="rId45" ref="B58"/>
-    <hyperlink r:id="rId46" ref="C58"/>
-    <hyperlink r:id="rId47" ref="B59"/>
-    <hyperlink r:id="rId48" ref="C59"/>
-    <hyperlink r:id="rId49" ref="B60"/>
-    <hyperlink r:id="rId50" ref="C60"/>
-    <hyperlink r:id="rId51" ref="B61"/>
-    <hyperlink r:id="rId52" ref="C61"/>
-    <hyperlink r:id="rId53" ref="B62"/>
-    <hyperlink r:id="rId54" ref="C62"/>
-    <hyperlink r:id="rId55" ref="B63"/>
-    <hyperlink r:id="rId56" ref="C63"/>
-    <hyperlink r:id="rId57" ref="B64"/>
-    <hyperlink r:id="rId58" ref="C64"/>
-    <hyperlink r:id="rId59" ref="B65"/>
-    <hyperlink r:id="rId60" ref="C65"/>
-    <hyperlink r:id="rId61" ref="B66"/>
-    <hyperlink r:id="rId62" ref="C66"/>
-    <hyperlink r:id="rId63" ref="B69"/>
-    <hyperlink r:id="rId64" ref="C69"/>
-    <hyperlink r:id="rId65" ref="B70"/>
-    <hyperlink r:id="rId66" ref="B71"/>
-    <hyperlink r:id="rId67" ref="B72"/>
-    <hyperlink r:id="rId68" ref="B73"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
+    <hyperlink ref="B25" r:id="rId19"/>
+    <hyperlink ref="B26" r:id="rId20"/>
+    <hyperlink ref="B27" r:id="rId21"/>
+    <hyperlink ref="B28" r:id="rId22"/>
+    <hyperlink ref="B29" r:id="rId23"/>
+    <hyperlink ref="B30" r:id="rId24"/>
+    <hyperlink ref="B33" r:id="rId25"/>
+    <hyperlink ref="B34" r:id="rId26"/>
+    <hyperlink ref="B35" r:id="rId27"/>
+    <hyperlink ref="B36" r:id="rId28"/>
+    <hyperlink ref="B37" r:id="rId29"/>
+    <hyperlink ref="C39" r:id="rId30"/>
+    <hyperlink ref="B42" r:id="rId31"/>
+    <hyperlink ref="B43" r:id="rId32"/>
+    <hyperlink ref="B44" r:id="rId33"/>
+    <hyperlink ref="B45" r:id="rId34"/>
+    <hyperlink ref="B46" r:id="rId35"/>
+    <hyperlink ref="B49" r:id="rId36"/>
+    <hyperlink ref="B50" r:id="rId37"/>
+    <hyperlink ref="B51" r:id="rId38"/>
+    <hyperlink ref="C51" r:id="rId39"/>
+    <hyperlink ref="B52" r:id="rId40"/>
+    <hyperlink ref="B53" r:id="rId41"/>
+    <hyperlink ref="C54" r:id="rId42"/>
+    <hyperlink ref="B57" r:id="rId43"/>
+    <hyperlink ref="C57" r:id="rId44"/>
+    <hyperlink ref="B58" r:id="rId45"/>
+    <hyperlink ref="C58" r:id="rId46"/>
+    <hyperlink ref="B59" r:id="rId47"/>
+    <hyperlink ref="C59" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="C60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="C61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="C62" r:id="rId54"/>
+    <hyperlink ref="B63" r:id="rId55"/>
+    <hyperlink ref="C63" r:id="rId56"/>
+    <hyperlink ref="B64" r:id="rId57"/>
+    <hyperlink ref="C64" r:id="rId58"/>
+    <hyperlink ref="B65" r:id="rId59"/>
+    <hyperlink ref="C65" r:id="rId60"/>
+    <hyperlink ref="B66" r:id="rId61"/>
+    <hyperlink ref="C66" r:id="rId62"/>
+    <hyperlink ref="B69" r:id="rId63"/>
+    <hyperlink ref="C69" r:id="rId64"/>
+    <hyperlink ref="B70" r:id="rId65"/>
+    <hyperlink ref="B71" r:id="rId66"/>
+    <hyperlink ref="B72" r:id="rId67"/>
+    <hyperlink ref="B73" r:id="rId68"/>
   </hyperlinks>
-  <drawing r:id="rId69"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId69"/>
 </worksheet>
 </file>